--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042098.025842844</v>
+        <v>1045417.572115749</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,67 +665,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.464632576075341</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1133,10 +1133,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>152.7613190986589</v>
+        <v>23.37503692583649</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T11" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
         <v>205.5178444382804</v>
@@ -1449,22 +1449,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>43.53759146957696</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1625,7 +1625,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1859,13 +1859,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2327,61 +2327,61 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>169.5521944243417</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>110.4474014451885</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>43.07281615969138</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,25 +2874,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>23.81770009755907</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9286280708251</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,58 +2965,58 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>85.15830808219329</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>4.089654531614567</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,56 +3272,56 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>127.9331172856529</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>7.970571721932035</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="T39" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>72.55971260501174</v>
       </c>
       <c r="D42" t="n">
-        <v>42.14629172736426</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.565027066663836</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4337,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X2" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y2" t="n">
-        <v>639.2227743377304</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.09272902505</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4434,25 +4434,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>513.308066045118</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V3" t="n">
-        <v>513.308066045118</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="W3" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
         <v>133.2380658808762</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,49 +4568,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4647,49 +4647,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V6" t="n">
-        <v>807.4381113577983</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4844,10 +4844,10 @@
         <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C9" t="n">
-        <v>667.7670150272036</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D9" t="n">
-        <v>518.8326053659523</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,7 +4890,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
         <v>435.9652341458732</v>
@@ -4920,13 +4920,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5048,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5063,28 +5063,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W11" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="X11" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.8560407330535</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C12" t="n">
-        <v>653.8560407330535</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D12" t="n">
-        <v>504.9216310718023</v>
+        <v>122.874819529786</v>
       </c>
       <c r="E12" t="n">
-        <v>345.6841760663468</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>199.1496180932317</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>60.41879267584724</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5124,7 +5124,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
@@ -5163,7 +5163,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5282,7 +5282,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
         <v>366.5706756325438</v>
@@ -5391,16 +5391,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5498,19 +5498,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F17" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="H17" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5598,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5716,7 +5716,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y21" t="n">
-        <v>131.5792353467183</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="22">
@@ -5938,7 +5938,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>281.5846883638847</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C24" t="n">
-        <v>281.5846883638847</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>691.6227832106515</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>489.4361885694175</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="U24" t="n">
-        <v>489.4361885694175</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="V24" t="n">
-        <v>489.4361885694175</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W24" t="n">
-        <v>489.4361885694175</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X24" t="n">
-        <v>281.5846883638847</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y24" t="n">
-        <v>281.5846883638847</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="25">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>920.5492603998368</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>747.1319158505057</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>307.1033079837604</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6502787026334</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6502787026334</v>
+        <v>203.3310136952813</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>44.09355868982578</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>722.7151069542472</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X30" t="n">
-        <v>514.8636067487143</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y30" t="n">
-        <v>307.1033079837604</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.6502787026334</v>
+        <v>481.618781308658</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>481.618781308658</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>481.618781308658</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>481.618781308658</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>335.0842233355429</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>196.3533979181584</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>959.9261913372882</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>716.4774146931882</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>508.6259144876553</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y33" t="n">
-        <v>300.8656157227014</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.432186667424</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>279.432186667424</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D36" t="n">
-        <v>279.432186667424</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="E36" t="n">
-        <v>279.432186667424</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="F36" t="n">
-        <v>279.432186667424</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="G36" t="n">
-        <v>140.7013612500395</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>27.33222565761882</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7023,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>279.432186667424</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>279.432186667424</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7260,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T39" t="n">
-        <v>933.8659450146204</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U39" t="n">
-        <v>705.6423267510095</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>470.4902185192667</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0414418751666</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7418,43 +7418,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>233.4664686820119</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>59.01343940088492</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>233.4664686820119</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7597,22 +7597,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,10 +7649,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7767,10 +7767,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8930,10 +8930,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,10 +11154,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>211.7044234967879</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,10 +22553,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22644,10 +22644,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>84.93200027533973</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,10 +22683,10 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>136.9980265978828</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>85.4677721317848</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23021,10 +23021,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23100,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>19.94717988965687</v>
+        <v>149.3334620624792</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,16 +23112,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8848386932009</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>143.7231242791326</v>
@@ -23337,22 +23337,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.69785276691951</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23513,7 +23513,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>51.39576075832579</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23747,13 +23747,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23969,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24023,7 +24023,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24035,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>61.53338767417517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24096,13 +24096,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24178,10 +24178,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,16 +24288,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,10 +24333,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2.130976679496143</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>89.71732724963313</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>135.0690668140378</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>57.08501799295175</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,25 +24762,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>121.2515122958248</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,22 +24810,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>12.76635509009446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24923,13 +24923,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150652</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>27.07713615430318</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>228.7109326178107</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>227.1458758085334</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,16 +25199,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>9.410399877557694</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42606112948305</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25354,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,19 +25394,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,10 +25439,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="T39" t="n">
-        <v>170.2754303037659</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>100.148786383304</v>
       </c>
       <c r="D42" t="n">
-        <v>105.2987738372745</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>338.5801012383814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25959,13 +25959,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>104.6704171698326</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>158.4767060221428</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>394394.1045873293</v>
+        <v>394394.1045873294</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283313</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283313</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283313</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283313</v>
       </c>
     </row>
     <row r="14">
@@ -26317,13 +26317,13 @@
         <v>157757.6418349316</v>
       </c>
       <c r="D2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349315</v>
       </c>
       <c r="G2" t="n">
         <v>166160.6725313324</v>
@@ -26344,7 +26344,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="M2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="N2" t="n">
         <v>166160.6725313324</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42219.34733357475</v>
+        <v>42606.98875246107</v>
       </c>
       <c r="C6" t="n">
-        <v>111093.1039152645</v>
+        <v>111480.7453341509</v>
       </c>
       <c r="D6" t="n">
-        <v>111093.1039152646</v>
+        <v>111480.7453341509</v>
       </c>
       <c r="E6" t="n">
-        <v>144720.7039152646</v>
+        <v>145108.3453341509</v>
       </c>
       <c r="F6" t="n">
-        <v>144720.7039152646</v>
+        <v>145108.3453341509</v>
       </c>
       <c r="G6" t="n">
-        <v>141189.8551232563</v>
+        <v>141598.4282956996</v>
       </c>
       <c r="H6" t="n">
-        <v>150918.8980974235</v>
+        <v>151327.4712698667</v>
       </c>
       <c r="I6" t="n">
-        <v>150918.8980974234</v>
+        <v>151327.4712698668</v>
       </c>
       <c r="J6" t="n">
-        <v>97146.38720721405</v>
+        <v>97554.96037965729</v>
       </c>
       <c r="K6" t="n">
-        <v>150918.8980974234</v>
+        <v>151327.4712698668</v>
       </c>
       <c r="L6" t="n">
-        <v>150918.8980974235</v>
+        <v>151327.4712698667</v>
       </c>
       <c r="M6" t="n">
-        <v>150918.8980974234</v>
+        <v>151327.4712698667</v>
       </c>
       <c r="N6" t="n">
-        <v>150918.8980974234</v>
+        <v>151327.4712698668</v>
       </c>
       <c r="O6" t="n">
-        <v>144720.7039152645</v>
+        <v>145108.3453341509</v>
       </c>
       <c r="P6" t="n">
-        <v>144720.7039152645</v>
+        <v>145108.3453341509</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34951,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35416,10 +35416,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,10 +35492,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M12" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37391,13 +37391,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37874,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1045417.572115749</v>
+        <v>1046201.718053777</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -798,13 +800,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>114.6969565630368</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>147.5063020130015</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>23.37503692583649</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>46.54968785507681</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
         <v>205.5178444382804</v>
@@ -1430,7 +1432,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>105.3690580549763</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>88.64014856619752</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.4474014451885</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>113.4538107927976</v>
       </c>
     </row>
     <row r="25">
@@ -2515,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2567,7 +2569,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.07281615969138</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>54.82907102477792</v>
       </c>
     </row>
     <row r="28">
@@ -2725,55 +2727,55 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2849,7 +2851,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>90.38893773807641</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.81770009755907</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,59 +3037,59 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>85.15830808219329</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="34">
@@ -3193,52 +3195,52 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.9331172856529</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="C42" t="n">
-        <v>72.55971260501174</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3907,58 +3909,58 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>47.29627918133471</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4337,13 +4339,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,13 +4357,13 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
         <v>604.3859801240053</v>
       </c>
       <c r="U2" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V2" t="n">
         <v>396.792197863116</v>
@@ -4370,7 +4372,7 @@
         <v>396.792197863116</v>
       </c>
       <c r="X2" t="n">
-        <v>396.792197863116</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y2" t="n">
         <v>189.1984156022267</v>
@@ -4416,13 +4418,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4446,10 +4448,10 @@
         <v>132.2969392348976</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
         <v>133.2380658808762</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,10 +4576,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4652,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4674,22 +4676,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>431.628992076841</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>224.0352098159517</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V6" t="n">
-        <v>224.0352098159517</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C9" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4920,13 +4922,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.2622584721643</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>271.8092291910373</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D12" t="n">
-        <v>122.874819529786</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,7 +5126,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
@@ -5163,7 +5165,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5300,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5391,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>846.5570557448675</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>846.5570557448675</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>603.1082791007675</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X21" t="n">
-        <v>395.2567788952347</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.4964801302808</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7999090013961</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>31.35113235729608</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.35113235729608</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>577.9072497513741</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C24" t="n">
-        <v>577.9072497513741</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D24" t="n">
-        <v>577.9072497513741</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E24" t="n">
-        <v>418.6697947459187</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6078,7 +6080,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>577.9072497513741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>577.9072497513741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>577.9072497513741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>577.9072497513741</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>577.9072497513741</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>577.9072497513741</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
         <v>20.03527576299844</v>
@@ -6312,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>920.5492603998368</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>747.1319158505057</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>544.9453212092717</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>544.9453212092717</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>544.9453212092717</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W27" t="n">
-        <v>544.9453212092717</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X27" t="n">
-        <v>544.9453212092717</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y27" t="n">
-        <v>337.1850224443177</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.7184526376595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>352.2654233565326</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>203.3310136952813</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>44.09355868982578</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
         <v>20.03527576299844</v>
@@ -6546,16 +6548,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.7184526376595</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6655,13 +6657,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.618781308658</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>481.618781308658</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>481.618781308658</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>481.618781308658</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>335.0842233355429</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>196.3533979181584</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>481.618781308658</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.618781308658</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
         <v>829.5248650203655</v>
@@ -7117,28 +7119,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7356,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7388,16 +7390,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7606,13 +7608,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7701,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7761,16 +7763,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8066,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>142.628815381816</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,7 +8309,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9726,10 +9728,10 @@
         <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22686,13 +22688,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>136.9980265978828</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>90.98573921426753</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22838,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>80.31623474114394</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22914,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>85.4677721317848</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
@@ -22923,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>104.1886811479181</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.3334620624792</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>205.1452953058428</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>210.9009519055691</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>45.82780846955609</v>
@@ -23318,7 +23320,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>52.27602240042461</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>51.39576075832579</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>51.78046976818791</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24020,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24099,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>109.6162833128638</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>117.13283663728</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>89.71732724963313</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>92.22888498450676</v>
       </c>
     </row>
     <row r="25">
@@ -24403,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24455,7 +24457,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24500,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.08501799295175</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>150.8536247525265</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>237.3633207320585</v>
+        <v>226.8698513616065</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>121.2515122958248</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>378.6650540150652</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>27.07713615430318</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>227.1458758085334</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>9.410399877557694</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25406,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>122.3720671615425</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>152.868449513487</v>
       </c>
       <c r="C42" t="n">
-        <v>100.148786383304</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>211.704423496788</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26001,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>158.4767060221428</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>394394.1045873295</v>
+        <v>394394.1045873293</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394394.1045873293</v>
+        <v>394394.1045873294</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283311</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283311</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="15">
@@ -26320,16 +26322,16 @@
         <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349315</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="H2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="I2" t="n">
         <v>166160.6725313324</v>
@@ -26344,7 +26346,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="M2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="N2" t="n">
         <v>166160.6725313324</v>
@@ -26439,7 +26441,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26448,7 +26450,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26528,10 +26530,10 @@
         <v>111480.7453341509</v>
       </c>
       <c r="E6" t="n">
-        <v>145108.3453341509</v>
+        <v>145108.345334151</v>
       </c>
       <c r="F6" t="n">
-        <v>145108.3453341509</v>
+        <v>145108.345334151</v>
       </c>
       <c r="G6" t="n">
         <v>141598.4282956996</v>
@@ -26540,10 +26542,10 @@
         <v>151327.4712698667</v>
       </c>
       <c r="I6" t="n">
-        <v>151327.4712698668</v>
+        <v>151327.4712698667</v>
       </c>
       <c r="J6" t="n">
-        <v>97554.96037965729</v>
+        <v>97554.96037965728</v>
       </c>
       <c r="K6" t="n">
         <v>151327.4712698668</v>
@@ -26555,7 +26557,7 @@
         <v>151327.4712698667</v>
       </c>
       <c r="N6" t="n">
-        <v>151327.4712698668</v>
+        <v>151327.4712698667</v>
       </c>
       <c r="O6" t="n">
         <v>145108.3453341509</v>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>21.52426467247106</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37391,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1046201.718053777</v>
+        <v>941969.2197903342</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="Y3" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>147.5063020130015</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,52 +1138,52 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>46.54968785507681</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,16 +1463,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>68.64566439629107</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>68.78467314474098</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>88.64014856619752</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,61 +2238,61 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>113.4538107927976</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2569,61 +2569,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>115.0114486120605</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.82907102477792</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,49 +3043,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>74.95904355882617</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3441,43 +3441,43 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.930131219116077</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.66473413638039</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4339,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>396.792197863116</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>189.1984156022267</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.1984156022267</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
-        <v>345.7514872519972</v>
-      </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4433,25 +4433,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V3" t="n">
-        <v>132.2969392348976</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W3" t="n">
-        <v>132.2969392348976</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4573,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4594,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
         <v>16.44142755506243</v>
@@ -4649,7 +4649,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
         <v>163.1080096386462</v>
@@ -4658,7 +4658,7 @@
         <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V6" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>190.8944568361894</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X6" t="n">
-        <v>190.8944568361894</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4746,31 +4746,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4892,13 +4892,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>775.0514910308218</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>567.4577087699325</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.8639265090432</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5001,13 +5001,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5047,7 +5047,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="T11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="U11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X11" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Y11" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>584.516985787305</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>584.516985787305</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,13 +5126,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5165,7 +5165,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.7323228073731</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5287,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5609,37 +5609,37 @@
         <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5691,25 +5691,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2696759935595</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>398.1570697793896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
+        <v>383.2428491569326</v>
+      </c>
+      <c r="N24" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N24" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>398.1570697793896</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
         <v>20.03527576299844</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="V27" t="n">
-        <v>526.7184526376595</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2696759935595</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X27" t="n">
-        <v>75.41817578802664</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6657,16 +6657,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6815,16 +6815,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7025,43 +7025,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>346.2587618989155</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>25.27117464467341</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7414,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7493,13 +7493,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
         <v>366.5706756325438</v>
@@ -7526,13 +7526,13 @@
         <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W42" t="n">
-        <v>412.2910008509983</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X42" t="n">
-        <v>412.2910008509983</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y42" t="n">
         <v>204.697218590109</v>
@@ -7630,13 +7630,13 @@
         <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.628815381816</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7024424905649</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,16 +8540,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,10 +8695,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8774,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7352039419416</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11384,10 +11384,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8597658442563</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,19 +22600,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>19.39975207878135</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.98573921426753</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22834,13 +22834,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.1886811479181</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>196.3457494999048</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029174</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>205.1452953058428</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,16 +23351,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>137.0370313810133</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>235.8466275750188</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>68.55884401846966</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>16.1006142106236</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23870,13 +23870,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>103.3909519116029</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>117.13283663728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>170.275430303766</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>92.22888498450676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24405,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,7 +24457,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>110.9299334689143</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.8536247525265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329354</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>226.8698513616065</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,7 +25204,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>91.57414009104117</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,10 +25481,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>131.4133859440946</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25523,16 +25523,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>152.868449513487</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>98.57071010011607</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25766,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>211.704423496788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>151.843121629009</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>394394.1045873294</v>
+        <v>394394.1045873295</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394394.1045873294</v>
+        <v>394394.1045873293</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415401.6813283311</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="10">
@@ -26322,16 +26322,16 @@
         <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="H2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
         <v>166160.6725313324</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42606.98875246107</v>
+        <v>29968.82659760057</v>
       </c>
       <c r="C6" t="n">
-        <v>111480.7453341509</v>
+        <v>98842.58317929038</v>
       </c>
       <c r="D6" t="n">
-        <v>111480.7453341509</v>
+        <v>98842.58317929041</v>
       </c>
       <c r="E6" t="n">
-        <v>145108.345334151</v>
+        <v>132470.1831792904</v>
       </c>
       <c r="F6" t="n">
-        <v>145108.345334151</v>
+        <v>132470.1831792904</v>
       </c>
       <c r="G6" t="n">
-        <v>141598.4282956996</v>
+        <v>129380.4176756592</v>
       </c>
       <c r="H6" t="n">
-        <v>151327.4712698667</v>
+        <v>139109.4606498263</v>
       </c>
       <c r="I6" t="n">
-        <v>151327.4712698667</v>
+        <v>139109.4606498262</v>
       </c>
       <c r="J6" t="n">
-        <v>97554.96037965728</v>
+        <v>85336.94975961687</v>
       </c>
       <c r="K6" t="n">
-        <v>151327.4712698668</v>
+        <v>139109.4606498262</v>
       </c>
       <c r="L6" t="n">
-        <v>151327.4712698667</v>
+        <v>139109.4606498263</v>
       </c>
       <c r="M6" t="n">
-        <v>151327.4712698667</v>
+        <v>139109.4606498262</v>
       </c>
       <c r="N6" t="n">
-        <v>151327.4712698667</v>
+        <v>139109.4606498263</v>
       </c>
       <c r="O6" t="n">
-        <v>145108.3453341509</v>
+        <v>132470.1831792904</v>
       </c>
       <c r="P6" t="n">
-        <v>145108.3453341509</v>
+        <v>132470.1831792904</v>
       </c>
     </row>
   </sheetData>
@@ -34707,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.4947814597977008</v>
-      </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,16 +35260,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35415,10 +35415,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35494,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36682,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1808241620674</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38104,10 +38104,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>12.72573192223801</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
